--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_53.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_53.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,610 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_80</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.02446524064171123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>isophonics_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_39</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05392545598731166</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F'], ['G:7', 'C:7', 'F']]</t>
+          <t>[['Bb', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(26.13, 29.49), (54.1, 57.51)]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(21.41, 24.83), (9.91, 14.0)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:40.030000', '0:00:43.842000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:02.557446', '0:00:06.319079')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4003267973856209</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(23.6, 28.92), (23.04, 26.52), (254.26, 257.98), (12.56, 17.2)]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (7.7, 12.06), (39.18, 53.36), (0.34, 4.84)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:12.094553', '0:00:20.870746')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:25.606371', '0:00:42.394399')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_13</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1758373205741627</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_19</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2022988505747126</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C']]</t>
+          <t>[['D', 'G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(57.401473, 60.907686)]</t>
+          <t>[['F', 'Bb', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(23.629455, 29.120975)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:32.421428', '0:00:38.307687')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:13.976734', '0:00:18.678775')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(129.38, 134.38)]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.415079, 14.054444)]</t>
+          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:02:12.380000', '0:02:14.600000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1715686274509804</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06554054054054054</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>[['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(11.465419, 19.151224)]</t>
+          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(122.674, 126.958)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:00:12.560000'), ('0:00:24.180000', '0:00:27.660000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:13.648526', '0:00:21.125350'), ('0:00:01.129708', '0:00:06.125260')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(142.14, 146.8)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:03:50.780000', '0:04:06.860000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:20.420000', '0:00:24.160000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07857142857142857</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min/5', 'C:min'], ['C:min', 'G:maj', 'C:min']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08104575163398693</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['F#', 'B', 'B/7', 'B/6']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(17.357, 22.981), (7.523, 10.397)]</t>
+          <t>[['E', 'A', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.24, 12.56), (13.72, 18.34)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:04.940612', '0:00:07.123287')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:41.256621', '0:00:53.946326')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(70.98, 80.44), (18.12, 24.54)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(58.557, 62.834), (40.49, 47.86)]</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_215</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1068840579710145</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb:maj', 'C', 'Bb/5']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb', 'C', 'Bb']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(29.986893, 33.048777)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.779614, 7.239387)]</t>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_72</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06658536585365854</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'D/5']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Ab']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.448, 10.553)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(103.35, 106.64)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:22.380000', '0:02:25.800000'), ('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:24.401147', '0:00:28.461467'), ('0:00:08.158789', '0:00:22.589990')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(30.02, 44.28)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(19.5, 49.86)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:08.413696', '0:00:12.303038')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3080357142857143</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(62.48, 64.92)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(74.879, 85.949)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.4714285714285714</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(138.02, 143.32)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.014823, 13.657911)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj'], ['C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(74.4, 81.68), (0.78, 23.84)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.48, 8.48), (9.06, 10.78)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj'], ['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(52.74, 60.86), (80.22, 87.22)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6), (10.38, 16.32)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_41</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0992063492063492</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'F']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(234.42, 237.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(56.279931, 60.633673)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
